--- a/presentaciones.xlsx
+++ b/presentaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f577dda2fcbe77/Documentos/LAB-MAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35FC1DF-6F84-4966-98A2-EC13AEA4ED5A}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387E36E2-3FA0-4A48-B9A6-EC2DB953406B}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>Estudiante</t>
   </si>
@@ -53,64 +53,207 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mateo Parra Mena</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Impact of artificial intelligence adoption on students' academic performance in open and distance learning: A systematic literature review</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2405844024160562</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Joaquín Aravena</t>
+  </si>
+  <si>
+    <t>Etica de la IA</t>
+  </si>
+  <si>
+    <t>Using a Personality-Profiling Algorithm to Investigate Political Microtargeting: Assessing the Persuasion Effects of Personality-Tailored Ads on Social Media</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/10.1177/0093650220961965</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Gustavo Lara Urrutia</t>
+  </si>
+  <si>
+    <t>Scruples: A Corpus of Community Ethical Judgments on 32,000 Real-Life Anecdotes</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2008.09094</t>
+  </si>
+  <si>
+    <t>Joaquín Arévalo</t>
+  </si>
+  <si>
+    <t>Ética de la IA</t>
+  </si>
+  <si>
+    <t>The moral machine experiment</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-018-0637-6</t>
+  </si>
+  <si>
+    <t>Valentín Álvarez</t>
+  </si>
+  <si>
+    <t>IA generativa</t>
+  </si>
+  <si>
+    <t>Exploring Variational Auto-encoder Architectures, Configurations, and Datasets for Generative Music Explainable AI</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11633-023-1457-1</t>
+  </si>
+  <si>
+    <t>Darling Morales</t>
+  </si>
+  <si>
+    <t>Ia Generativa</t>
+  </si>
+  <si>
+    <t>Human Misperception of Generative-AI Alignment: A Laboratory Experiment</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2502.14708?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>Juan Acevedo</t>
+  </si>
+  <si>
+    <t>Interacción humano-IA</t>
+  </si>
+  <si>
+    <t>Human-AI Interaction and User Satisfaction: Empirical Evidence from Online Reviews of AI Products</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2503.17955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Meza </t>
+  </si>
+  <si>
+    <t>Interactive AI-Generated Virtual Instructors Enhance Learning Motivation and Engagement in Financial Education_x000D_</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-031-64312-5_26</t>
+  </si>
+  <si>
+    <t>Martin Valenzuela</t>
+  </si>
+  <si>
+    <t>"Help Me Help the AI": Understanding How Explainability Can
+Support Human-AI Interaction</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3544548.3581001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Wilson </t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Technology in Basketball Training Action Recognition</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/neurorobotics/articles/10.3389/fnbot.2022.819784/full</t>
+  </si>
+  <si>
+    <t>Vicente Ortiz</t>
+  </si>
+  <si>
+    <t>DiT: Self-supervised Pre-training for Document Image Transformer</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2203.02378</t>
+  </si>
+  <si>
+    <t>Joaquin Zapata</t>
+  </si>
+  <si>
+    <t>Mercado Laboral</t>
+  </si>
+  <si>
+    <t>Influence of Artificial Intelligence on the Financial Labor Market</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1544612325003034</t>
+  </si>
+  <si>
+    <t>Francisco Villarroel</t>
+  </si>
+  <si>
+    <t>Promoting or inhibiting: The impact of artificial intelligence application on corporate environmental performance</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1057521924008044</t>
+  </si>
+  <si>
+    <t>Alejandro Martel</t>
+  </si>
+  <si>
+    <t>AI, Automation and New Jobs</t>
+  </si>
+  <si>
+    <t>https://www.scirp.org/journal/paperinformation?paperid=112070</t>
+  </si>
+  <si>
+    <t>Juan José Altamirano</t>
+  </si>
+  <si>
+    <t>The relationship between artificial intelligence, big data, and
+unemployment in G7 countries: New insights from dynamic panel
+data model</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2772655X23000629?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Anibal Painepil Utreras</t>
+  </si>
+  <si>
+    <t>Robotica</t>
+  </si>
+  <si>
+    <t>“Traffic Signal Control with Deep Q-Learning Network (DQN) Algorithm at Isolated Intersection”</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=10033656</t>
+  </si>
+  <si>
     <t>Jordan Quilodrán</t>
   </si>
   <si>
     <t>Salud</t>
   </si>
   <si>
-    <t>The Role of Artificial Intelligence in Early Cancer Diagnosis</t>
-  </si>
-  <si>
-    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC8946688/pdf/cancers-14-01524.pdf</t>
-  </si>
-  <si>
-    <t>Francisco Villarroel</t>
-  </si>
-  <si>
-    <t>Mercado Laboral</t>
-  </si>
-  <si>
-    <t>Alejandro Martel</t>
-  </si>
-  <si>
-    <t>AI, Automation and New Jobs</t>
-  </si>
-  <si>
-    <t>https://www.scirp.org/journal/paperinformation?paperid=112070</t>
+    <t xml:space="preserve"> Effect of artificial intelligence-based triaging of breast cancer 
+screening mammograms on cancer detection and radiologist 
+workload: a retrospective simulation study</t>
+  </si>
+  <si>
+    <t>https://www.thelancet.com/action/showPdf?pii=S2589-7500%2820%2930185-0</t>
   </si>
   <si>
     <t>Guillermo Montero</t>
   </si>
   <si>
-    <t>Inteligencia artificial en enfermedades infecciosas</t>
-  </si>
-  <si>
-    <t>https://revista.infectologia.info/index.php/revista/article/download/209/204/</t>
-  </si>
-  <si>
-    <t>Joaquín Arévalo</t>
-  </si>
-  <si>
-    <t>Ética de la IA</t>
-  </si>
-  <si>
-    <t>The global landscape of AI ethics guidelines</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1038/s42256-019-0088-2</t>
-  </si>
-  <si>
-    <t>Juan Acevedo</t>
-  </si>
-  <si>
-    <t>Interacción humano-IA</t>
-  </si>
-  <si>
-    <t>Human-AI Interaction and User Satisfaction: Empirical Evidence from Online Reviews of AI Products</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2503.17955</t>
+    <t>EffectorP: predicting fungal effector proteins from secretomes using machine learning</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/full/10.1111/nph.13794</t>
   </si>
   <si>
     <t>Diego Carmine</t>
@@ -122,71 +265,93 @@
     <t>https://www.nature.com/articles/s41586-021-03819-2.pdf</t>
   </si>
   <si>
-    <t>Bryan Neira</t>
-  </si>
-  <si>
-    <t>Human-AI Interaction and AI Avatars</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/375910768_Human-AI_Interaction_and_AI_Avatars</t>
-  </si>
-  <si>
-    <t>Artificial intelligence (AI) -integrated educational applications and college students’ creativity and academic emotions: students and teachers’ perceptions and attitudes</t>
-  </si>
-  <si>
-    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC11403842/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Meza </t>
-  </si>
-  <si>
-    <t>Interactive AI-Generated Virtual Instructors Enhance Learning Motivation and Engagement in Financial Education_x000D_</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/chapter/10.1007/978-3-031-64312-5_26</t>
-  </si>
-  <si>
-    <t>Valentín Álvarez</t>
-  </si>
-  <si>
-    <t>IA generativa</t>
-  </si>
-  <si>
-    <t>Exploring Variational Auto-encoder Architectures, Configurations, and Datasets for Generative Music Explainable AI</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s11633-023-1457-1</t>
-  </si>
-  <si>
-    <t>Joaquin Zapata</t>
-  </si>
-  <si>
-    <t>Artificial intelligence and Machine Learning approaches in sports: Concepts, applications, challenges, and future perspectives</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S1413355524004891</t>
-  </si>
-  <si>
     <t>Vicente Pérez</t>
   </si>
   <si>
-    <t>Artificial Intelligence in Surgery: Promises and Perils</t>
-  </si>
-  <si>
-    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC5995666/pdf/nihms951789.pdf</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Early detection of Parkinson's disease using machine learning</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1877050923000078</t>
+  </si>
+  <si>
+    <t>Ignacio Santana Abásolo</t>
+  </si>
+  <si>
+    <t>Deep learning based estimation of heart surface potentials</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0933365725000284#sec6</t>
+  </si>
+  <si>
+    <t>José Muñoz Barraza</t>
+  </si>
+  <si>
+    <t>Accurate structure prediction of biomolecular interactions with AlphaFold 3</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41586-024-07487-w</t>
+  </si>
+  <si>
+    <t>Nicolás Garrido Parra</t>
+  </si>
+  <si>
+    <t>Classification tree obtained by artificial intelligence for the prediction of heart failure after acute coronary syndromes</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2387020624003358</t>
+  </si>
+  <si>
+    <t>Javiera Montesinos</t>
+  </si>
+  <si>
+    <t>A Comparative Analysis of Machine Learning Algorithms to Predict Alzheimer’s Disease</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1155/2021/9917919</t>
+  </si>
+  <si>
+    <t>Benjamin Araneda Wolf</t>
+  </si>
+  <si>
+    <t>Comparison of the accuracy of human readers versus machine-learning algorithms for pigmented skin lesion classification: an open, web-based, international, diagnostic study</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S1470-2045(19)30333-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Bustos Romero </t>
+  </si>
+  <si>
+    <t>Machine Learning and Improved Quality Metrics in Acute Intracranial
+Hemorrhage by Noncontrast Computed Tomography</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0363018820302085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matías Hermosilla </t>
+  </si>
+  <si>
+    <t>An application of machine learning to haematological diagnosis</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-017-18564-8</t>
+  </si>
+  <si>
+    <t>Bryans Neira</t>
+  </si>
+  <si>
+    <t>Improving Chronic Kidney Disease Detection Efficiency</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2504.04262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +375,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,13 +416,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -255,10 +446,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,21 +711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.83984375" customWidth="1"/>
-    <col min="2" max="2" width="20.15625" customWidth="1"/>
-    <col min="3" max="3" width="70.26171875" customWidth="1"/>
-    <col min="4" max="4" width="69.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="97.85546875" customWidth="1"/>
+    <col min="4" max="4" width="82.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,213 +740,516 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+    <row r="14" spans="1:5" ht="30.75">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45.75">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.75">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45.75">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.75">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30.75">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30.75">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
-      <sortCondition ref="B1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{B7E3A752-5F31-4919-A1A0-0AC4800FC8D6}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{16F78ED4-42F8-474C-82FC-C92A8570347D}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{1AEAE276-1898-42EE-A98C-09308112D346}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{762C660E-5C0B-4A8B-BCFF-AA826BEB7BAC}"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{A0936DE5-7191-4307-BAC1-C965648B204E}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{CE5A6B3F-DB79-4655-91A1-27AE601C1A55}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{009D7F3F-0745-41ED-9849-0F1E1D80C3A7}"/>
+    <hyperlink ref="D22" r:id="rId11" location="sec6" xr:uid="{997D29CE-A701-4233-9209-2E2A1C9D1A5F}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{0DE42600-1C89-409E-94D5-3C426370BB90}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{23E99585-C50F-46AF-9B28-37A3C2A03AF7}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{8EB81177-508E-AC4F-9034-A684AEE04EEF}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{41E3E405-D98D-4855-BDAE-6CEA397E4548}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{FE31BB86-6687-459C-84BE-44E402AC1D44}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{A6EBA4EA-D826-4D1B-A807-596B25C9D5FF}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{A074E984-4E20-4E34-A1D3-0DE55B9CDDC1}"/>
+    <hyperlink ref="D4" r:id="rId19" xr:uid="{990B9B42-B33F-4633-825C-6F9835160C60}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{712692C1-81E2-4243-8719-03749C203648}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{5588F7BC-1E70-4015-B486-EA6AD5762A3E}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{19431946-30AA-4CF3-8350-7EBC108EC776}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{6802D173-6EA9-43DA-85B5-71D7C3E15AC1}"/>
+    <hyperlink ref="D18" r:id="rId24" xr:uid="{2F9974E0-D170-415D-8536-E2554494B17C}"/>
+    <hyperlink ref="D29" r:id="rId25" xr:uid="{E5A5B66D-ABF2-473D-A0CF-B1DD97188281}"/>
+    <hyperlink ref="D21" r:id="rId26" xr:uid="{09AA2B8A-AF20-472B-8AE2-0823280774CD}"/>
+    <hyperlink ref="D5" r:id="rId27" xr:uid="{DF1D14E1-D6A7-45F6-AC5F-6F6F6A726E19}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/presentaciones.xlsx
+++ b/presentaciones.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f577dda2fcbe77/Documentos/LAB-MAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\OneDrive\Documentos\LAB-MAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387E36E2-3FA0-4A48-B9A6-EC2DB953406B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD15A7B-A777-4D2C-9F02-1F9E38C719B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>Estudiante</t>
   </si>
@@ -345,13 +345,31 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2504.04262</t>
+  </si>
+  <si>
+    <t>Grupo / Fecha</t>
+  </si>
+  <si>
+    <t>26/6</t>
+  </si>
+  <si>
+    <t>19/6</t>
+  </si>
+  <si>
+    <t>24/6</t>
+  </si>
+  <si>
+    <t>12/6</t>
+  </si>
+  <si>
+    <t>5/6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,11 +397,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -430,6 +455,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -711,22 +739,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="97.85546875" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.953125" customWidth="1"/>
+    <col min="2" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="69.2265625" customWidth="1"/>
+    <col min="5" max="5" width="82.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,16 +762,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -751,16 +782,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -768,33 +802,39 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -802,101 +842,119 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -904,16 +962,19 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -921,220 +982,259 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" customHeight="1">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30.75">
+    <row r="14" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45.75">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.75">
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45.75">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.75">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30.75">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1142,16 +1242,19 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1159,33 +1262,39 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.75">
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1">
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1193,16 +1302,19 @@
         <v>64</v>
       </c>
       <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1210,46 +1322,50 @@
         <v>64</v>
       </c>
       <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{A0936DE5-7191-4307-BAC1-C965648B204E}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{CE5A6B3F-DB79-4655-91A1-27AE601C1A55}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{009D7F3F-0745-41ED-9849-0F1E1D80C3A7}"/>
-    <hyperlink ref="D22" r:id="rId11" location="sec6" xr:uid="{997D29CE-A701-4233-9209-2E2A1C9D1A5F}"/>
-    <hyperlink ref="D23" r:id="rId12" xr:uid="{0DE42600-1C89-409E-94D5-3C426370BB90}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{23E99585-C50F-46AF-9B28-37A3C2A03AF7}"/>
-    <hyperlink ref="D24" r:id="rId14" xr:uid="{8EB81177-508E-AC4F-9034-A684AEE04EEF}"/>
-    <hyperlink ref="D3" r:id="rId15" xr:uid="{41E3E405-D98D-4855-BDAE-6CEA397E4548}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{FE31BB86-6687-459C-84BE-44E402AC1D44}"/>
-    <hyperlink ref="D12" r:id="rId17" xr:uid="{A6EBA4EA-D826-4D1B-A807-596B25C9D5FF}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{A074E984-4E20-4E34-A1D3-0DE55B9CDDC1}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{990B9B42-B33F-4633-825C-6F9835160C60}"/>
-    <hyperlink ref="D27" r:id="rId20" xr:uid="{712692C1-81E2-4243-8719-03749C203648}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{5588F7BC-1E70-4015-B486-EA6AD5762A3E}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{19431946-30AA-4CF3-8350-7EBC108EC776}"/>
-    <hyperlink ref="D7" r:id="rId23" xr:uid="{6802D173-6EA9-43DA-85B5-71D7C3E15AC1}"/>
-    <hyperlink ref="D18" r:id="rId24" xr:uid="{2F9974E0-D170-415D-8536-E2554494B17C}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{E5A5B66D-ABF2-473D-A0CF-B1DD97188281}"/>
-    <hyperlink ref="D21" r:id="rId26" xr:uid="{09AA2B8A-AF20-472B-8AE2-0823280774CD}"/>
-    <hyperlink ref="D5" r:id="rId27" xr:uid="{DF1D14E1-D6A7-45F6-AC5F-6F6F6A726E19}"/>
-    <hyperlink ref="D19" r:id="rId28" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
+    <hyperlink ref="E20" r:id="rId1" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{A0936DE5-7191-4307-BAC1-C965648B204E}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{CE5A6B3F-DB79-4655-91A1-27AE601C1A55}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{009D7F3F-0745-41ED-9849-0F1E1D80C3A7}"/>
+    <hyperlink ref="E22" r:id="rId11" location="sec6" xr:uid="{997D29CE-A701-4233-9209-2E2A1C9D1A5F}"/>
+    <hyperlink ref="E23" r:id="rId12" xr:uid="{0DE42600-1C89-409E-94D5-3C426370BB90}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{23E99585-C50F-46AF-9B28-37A3C2A03AF7}"/>
+    <hyperlink ref="E24" r:id="rId14" xr:uid="{8EB81177-508E-AC4F-9034-A684AEE04EEF}"/>
+    <hyperlink ref="E3" r:id="rId15" xr:uid="{41E3E405-D98D-4855-BDAE-6CEA397E4548}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{FE31BB86-6687-459C-84BE-44E402AC1D44}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{A6EBA4EA-D826-4D1B-A807-596B25C9D5FF}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{A074E984-4E20-4E34-A1D3-0DE55B9CDDC1}"/>
+    <hyperlink ref="E4" r:id="rId19" xr:uid="{990B9B42-B33F-4633-825C-6F9835160C60}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{712692C1-81E2-4243-8719-03749C203648}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{5588F7BC-1E70-4015-B486-EA6AD5762A3E}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{19431946-30AA-4CF3-8350-7EBC108EC776}"/>
+    <hyperlink ref="E7" r:id="rId23" xr:uid="{6802D173-6EA9-43DA-85B5-71D7C3E15AC1}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{2F9974E0-D170-415D-8536-E2554494B17C}"/>
+    <hyperlink ref="E29" r:id="rId25" xr:uid="{E5A5B66D-ABF2-473D-A0CF-B1DD97188281}"/>
+    <hyperlink ref="E21" r:id="rId26" xr:uid="{09AA2B8A-AF20-472B-8AE2-0823280774CD}"/>
+    <hyperlink ref="E5" r:id="rId27" xr:uid="{DF1D14E1-D6A7-45F6-AC5F-6F6F6A726E19}"/>
+    <hyperlink ref="E19" r:id="rId28" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
